--- a/Analyze/generazione.xlsx
+++ b/Analyze/generazione.xlsx
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -552,44 +552,44 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>448.28</v>
+        <v>2193.15</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85532.94</v>
       </c>
       <c r="J2" t="n">
-        <v>448.28</v>
+        <v>87726.09</v>
       </c>
       <c r="K2" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L2" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M2" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N2" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O2" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="3">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -620,47 +620,47 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>448.28</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>115140.49</v>
       </c>
       <c r="J3" t="n">
-        <v>448.28</v>
+        <v>115140.49</v>
       </c>
       <c r="K3" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L3" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M3" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N3" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O3" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="4">
@@ -679,7 +679,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -688,44 +688,44 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>448.28</v>
+        <v>2193.15</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>118430.22</v>
       </c>
       <c r="J4" t="n">
-        <v>448.28</v>
+        <v>120623.37</v>
       </c>
       <c r="K4" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L4" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M4" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N4" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O4" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="5">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -756,44 +756,44 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>448.28</v>
+        <v>2193.15</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>101981.58</v>
       </c>
       <c r="J5" t="n">
-        <v>448.28</v>
+        <v>104174.73</v>
       </c>
       <c r="K5" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L5" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M5" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N5" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="6">
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -824,56 +824,56 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="G6" t="n">
-        <v>582.76</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2193.15</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>75663.75</v>
       </c>
       <c r="J6" t="n">
-        <v>582.76</v>
+        <v>77856.89999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L6" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M6" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N6" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="7">
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -892,44 +892,44 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>6</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>448.28</v>
+        <v>2193.15</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98691.85000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>448.28</v>
+        <v>100885</v>
       </c>
       <c r="K7" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L7" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M7" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N7" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O7" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="8">
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -960,44 +960,44 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G8" t="n">
-        <v>582.76</v>
+        <v>2851.1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>42766.47</v>
       </c>
       <c r="J8" t="n">
-        <v>582.76</v>
+        <v>45617.57</v>
       </c>
       <c r="K8" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L8" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M8" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N8" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O8" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="9">
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1028,56 +1028,56 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="G9" t="n">
-        <v>582.76</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>92112.39</v>
       </c>
       <c r="J9" t="n">
-        <v>582.76</v>
+        <v>92112.39</v>
       </c>
       <c r="K9" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L9" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M9" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N9" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O9" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="10">
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1096,56 +1096,56 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="G10" t="n">
-        <v>582.76</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>88822.66</v>
       </c>
       <c r="J10" t="n">
-        <v>582.76</v>
+        <v>88822.66</v>
       </c>
       <c r="K10" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L10" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M10" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N10" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O10" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="11">
@@ -1155,7 +1155,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1164,56 +1164,56 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="G11" t="n">
-        <v>582.76</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>52635.65</v>
       </c>
       <c r="J11" t="n">
-        <v>582.76</v>
+        <v>52635.65</v>
       </c>
       <c r="K11" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L11" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M11" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N11" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O11" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="12">
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1232,44 +1232,44 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="G12" t="n">
-        <v>582.76</v>
+        <v>2851.1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>46056.2</v>
       </c>
       <c r="J12" t="n">
-        <v>582.76</v>
+        <v>48907.29</v>
       </c>
       <c r="K12" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L12" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M12" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N12" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O12" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="13">
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1300,47 +1300,47 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>448.28</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134878.86</v>
       </c>
       <c r="J13" t="n">
-        <v>448.28</v>
+        <v>134878.86</v>
       </c>
       <c r="K13" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L13" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M13" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N13" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O13" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="14">
@@ -1359,7 +1359,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1368,56 +1368,56 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2851.1</v>
       </c>
       <c r="H14" t="n">
-        <v>448.28</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>101981.58</v>
       </c>
       <c r="J14" t="n">
-        <v>448.28</v>
+        <v>104832.68</v>
       </c>
       <c r="K14" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L14" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M14" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N14" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O14" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="15">
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1436,56 +1436,56 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="G15" t="n">
-        <v>582.76</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2193.15</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>125009.68</v>
       </c>
       <c r="J15" t="n">
-        <v>582.76</v>
+        <v>127202.83</v>
       </c>
       <c r="K15" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L15" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M15" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N15" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O15" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="16">
@@ -1495,7 +1495,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1504,56 +1504,56 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>118</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2851.1</v>
       </c>
       <c r="H16" t="n">
-        <v>448.28</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>128299.4</v>
       </c>
       <c r="J16" t="n">
-        <v>448.28</v>
+        <v>131150.5</v>
       </c>
       <c r="K16" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L16" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M16" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N16" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O16" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="17">
@@ -1563,7 +1563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1572,56 +1572,56 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>5</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="G17" t="n">
-        <v>582.76</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>82243.21000000001</v>
       </c>
       <c r="J17" t="n">
-        <v>582.76</v>
+        <v>82243.21000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L17" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M17" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N17" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O17" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="18">
@@ -1631,7 +1631,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1640,56 +1640,56 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>6</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="G18" t="n">
-        <v>582.76</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>131589.13</v>
       </c>
       <c r="J18" t="n">
-        <v>582.76</v>
+        <v>131589.13</v>
       </c>
       <c r="K18" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L18" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M18" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N18" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O18" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="19">
@@ -1699,7 +1699,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1708,56 +1708,56 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2851.1</v>
       </c>
       <c r="H19" t="n">
-        <v>448.28</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>111850.76</v>
       </c>
       <c r="J19" t="n">
-        <v>448.28</v>
+        <v>114701.86</v>
       </c>
       <c r="K19" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L19" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M19" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N19" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O19" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="20">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1776,56 +1776,56 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E20" t="n">
         <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2851.1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>672.42</v>
+        <v>154617.23</v>
       </c>
       <c r="J20" t="n">
-        <v>672.42</v>
+        <v>157468.33</v>
       </c>
       <c r="K20" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L20" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M20" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N20" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O20" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="21">
@@ -1835,7 +1835,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1844,56 +1844,56 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E21" t="n">
         <v>3</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>166</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>2851.1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>672.42</v>
+        <v>180935.06</v>
       </c>
       <c r="J21" t="n">
-        <v>672.42</v>
+        <v>183786.15</v>
       </c>
       <c r="K21" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L21" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M21" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N21" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O21" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="22">
@@ -1903,7 +1903,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1912,56 +1912,56 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E22" t="n">
         <v>4</v>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2851.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>672.42</v>
+        <v>138168.59</v>
       </c>
       <c r="J22" t="n">
-        <v>672.42</v>
+        <v>141019.69</v>
       </c>
       <c r="K22" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L22" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M22" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N22" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O22" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="23">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1980,56 +1980,56 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E23" t="n">
         <v>5</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2851.1</v>
       </c>
       <c r="H23" t="n">
-        <v>448.28</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>138168.59</v>
       </c>
       <c r="J23" t="n">
-        <v>448.28</v>
+        <v>141019.69</v>
       </c>
       <c r="K23" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L23" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M23" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N23" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O23" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="Q23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="24">
@@ -2039,7 +2039,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -2048,47 +2048,47 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E24" t="n">
         <v>6</v>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>170</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2193.15</v>
       </c>
       <c r="I24" t="n">
-        <v>672.42</v>
+        <v>184224.79</v>
       </c>
       <c r="J24" t="n">
-        <v>672.42</v>
+        <v>186417.94</v>
       </c>
       <c r="K24" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L24" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M24" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N24" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O24" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="25">
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -2116,14 +2116,14 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E25" t="n">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>6</v>
+        <v>195</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2132,28 +2132,28 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1344.84</v>
+        <v>213832.34</v>
       </c>
       <c r="J25" t="n">
-        <v>1344.84</v>
+        <v>213832.34</v>
       </c>
       <c r="K25" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L25" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M25" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N25" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O25" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P25" t="n">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="26">
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -2184,14 +2184,14 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E26" t="n">
         <v>2</v>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>255</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2200,28 +2200,28 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>672.42</v>
+        <v>279626.91</v>
       </c>
       <c r="J26" t="n">
-        <v>672.42</v>
+        <v>279626.91</v>
       </c>
       <c r="K26" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L26" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M26" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N26" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O26" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P26" t="n">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="27">
@@ -2243,7 +2243,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -2252,56 +2252,56 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E27" t="n">
         <v>3</v>
       </c>
       <c r="F27" t="n">
-        <v>4</v>
+        <v>233</v>
       </c>
       <c r="G27" t="n">
-        <v>582.76</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2193.15</v>
       </c>
       <c r="I27" t="n">
-        <v>672.42</v>
+        <v>253309.08</v>
       </c>
       <c r="J27" t="n">
-        <v>1255.19</v>
+        <v>255502.23</v>
       </c>
       <c r="K27" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L27" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M27" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N27" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O27" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P27" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="28">
@@ -2311,7 +2311,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -2320,56 +2320,56 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E28" t="n">
         <v>4</v>
       </c>
       <c r="F28" t="n">
-        <v>5</v>
+        <v>319</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>2851.1</v>
       </c>
       <c r="H28" t="n">
-        <v>448.28</v>
+        <v>52635.65</v>
       </c>
       <c r="I28" t="n">
-        <v>672.42</v>
+        <v>296075.55</v>
       </c>
       <c r="J28" t="n">
-        <v>1120.7</v>
+        <v>351562.3</v>
       </c>
       <c r="K28" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L28" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M28" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N28" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O28" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P28" t="n">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="Q28" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="29">
@@ -2379,7 +2379,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -2388,47 +2388,47 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E29" t="n">
         <v>5</v>
       </c>
       <c r="F29" t="n">
-        <v>6</v>
+        <v>312</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>46056.2</v>
       </c>
       <c r="I29" t="n">
-        <v>1344.84</v>
+        <v>296075.55</v>
       </c>
       <c r="J29" t="n">
-        <v>1344.84</v>
+        <v>342131.74</v>
       </c>
       <c r="K29" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L29" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M29" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N29" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O29" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P29" t="n">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2437,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="30">
@@ -2447,7 +2447,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -2456,44 +2456,44 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E30" t="n">
         <v>6</v>
       </c>
       <c r="F30" t="n">
-        <v>5</v>
+        <v>215</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>448.28</v>
+        <v>2193.15</v>
       </c>
       <c r="I30" t="n">
-        <v>672.42</v>
+        <v>233570.71</v>
       </c>
       <c r="J30" t="n">
-        <v>1120.7</v>
+        <v>235763.86</v>
       </c>
       <c r="K30" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L30" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M30" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N30" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O30" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
@@ -2505,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="31">
@@ -2515,7 +2515,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -2524,56 +2524,56 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E31" t="n">
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>8</v>
+        <v>301</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2851.1</v>
       </c>
       <c r="H31" t="n">
-        <v>448.28</v>
+        <v>32897.28</v>
       </c>
       <c r="I31" t="n">
-        <v>1344.84</v>
+        <v>296075.55</v>
       </c>
       <c r="J31" t="n">
-        <v>1793.12</v>
+        <v>331823.93</v>
       </c>
       <c r="K31" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L31" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M31" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N31" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O31" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P31" t="n">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="Q31" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="32">
@@ -2583,7 +2583,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -2592,47 +2592,47 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E32" t="n">
         <v>2</v>
       </c>
       <c r="F32" t="n">
-        <v>7</v>
+        <v>381</v>
       </c>
       <c r="G32" t="n">
-        <v>582.76</v>
+        <v>2851.1</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>120623.37</v>
       </c>
       <c r="I32" t="n">
-        <v>1344.84</v>
+        <v>296075.55</v>
       </c>
       <c r="J32" t="n">
-        <v>1927.61</v>
+        <v>419550.02</v>
       </c>
       <c r="K32" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L32" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M32" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N32" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O32" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P32" t="n">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="R32" t="n">
         <v>1</v>
@@ -2641,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="33">
@@ -2651,7 +2651,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -2660,56 +2660,56 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E33" t="n">
         <v>3</v>
       </c>
       <c r="F33" t="n">
-        <v>5</v>
+        <v>217</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>2851.1</v>
       </c>
       <c r="H33" t="n">
-        <v>448.28</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>672.42</v>
+        <v>236860.44</v>
       </c>
       <c r="J33" t="n">
-        <v>1120.7</v>
+        <v>239711.54</v>
       </c>
       <c r="K33" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L33" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M33" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N33" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O33" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="Q33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="34">
@@ -2719,7 +2719,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -2728,47 +2728,47 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E34" t="n">
         <v>4</v>
       </c>
       <c r="F34" t="n">
-        <v>4</v>
+        <v>315</v>
       </c>
       <c r="G34" t="n">
-        <v>582.76</v>
+        <v>2851.1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>48249.35</v>
       </c>
       <c r="I34" t="n">
-        <v>672.42</v>
+        <v>296075.55</v>
       </c>
       <c r="J34" t="n">
-        <v>1255.19</v>
+        <v>347175.99</v>
       </c>
       <c r="K34" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L34" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M34" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N34" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O34" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="R34" t="n">
         <v>1</v>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="35">
@@ -2787,7 +2787,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -2796,47 +2796,47 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E35" t="n">
         <v>5</v>
       </c>
       <c r="F35" t="n">
-        <v>8</v>
+        <v>334</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>448.28</v>
+        <v>70180.87</v>
       </c>
       <c r="I35" t="n">
-        <v>1344.84</v>
+        <v>296075.55</v>
       </c>
       <c r="J35" t="n">
-        <v>1793.12</v>
+        <v>366256.42</v>
       </c>
       <c r="K35" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L35" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M35" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N35" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O35" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P35" t="n">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="Q35" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="36">
@@ -2855,7 +2855,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -2864,56 +2864,56 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E36" t="n">
         <v>6</v>
       </c>
       <c r="F36" t="n">
-        <v>5</v>
+        <v>359</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>2851.1</v>
       </c>
       <c r="H36" t="n">
-        <v>448.28</v>
+        <v>96498.7</v>
       </c>
       <c r="I36" t="n">
-        <v>672.42</v>
+        <v>296075.55</v>
       </c>
       <c r="J36" t="n">
-        <v>1120.7</v>
+        <v>395425.34</v>
       </c>
       <c r="K36" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L36" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M36" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N36" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O36" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P36" t="n">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="Q36" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="37">
@@ -2923,7 +2923,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -2932,56 +2932,56 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E37" t="n">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>7</v>
+        <v>276</v>
       </c>
       <c r="G37" t="n">
-        <v>582.76</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>6579.46</v>
       </c>
       <c r="I37" t="n">
-        <v>1344.84</v>
+        <v>296075.55</v>
       </c>
       <c r="J37" t="n">
-        <v>1927.61</v>
+        <v>302655</v>
       </c>
       <c r="K37" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L37" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M37" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N37" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O37" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P37" t="n">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="38">
@@ -2991,7 +2991,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -3000,47 +3000,47 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E38" t="n">
         <v>2</v>
       </c>
       <c r="F38" t="n">
-        <v>6</v>
+        <v>386</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>127202.83</v>
       </c>
       <c r="I38" t="n">
-        <v>1344.84</v>
+        <v>296075.55</v>
       </c>
       <c r="J38" t="n">
-        <v>1344.84</v>
+        <v>423278.38</v>
       </c>
       <c r="K38" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L38" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M38" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N38" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O38" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P38" t="n">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="39">
@@ -3059,7 +3059,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -3068,56 +3068,56 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E39" t="n">
         <v>3</v>
       </c>
       <c r="F39" t="n">
-        <v>4</v>
+        <v>390</v>
       </c>
       <c r="G39" t="n">
-        <v>582.76</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>131589.13</v>
       </c>
       <c r="I39" t="n">
-        <v>672.42</v>
+        <v>296075.55</v>
       </c>
       <c r="J39" t="n">
-        <v>1255.19</v>
+        <v>427664.68</v>
       </c>
       <c r="K39" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L39" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M39" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N39" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O39" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P39" t="n">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="R39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="40">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -3136,56 +3136,56 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E40" t="n">
         <v>4</v>
       </c>
       <c r="F40" t="n">
-        <v>4</v>
+        <v>328</v>
       </c>
       <c r="G40" t="n">
-        <v>582.76</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>63601.41</v>
       </c>
       <c r="I40" t="n">
-        <v>672.42</v>
+        <v>296075.55</v>
       </c>
       <c r="J40" t="n">
-        <v>1255.19</v>
+        <v>359676.96</v>
       </c>
       <c r="K40" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L40" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M40" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N40" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O40" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P40" t="n">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="R40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="41">
@@ -3195,7 +3195,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -3204,56 +3204,56 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E41" t="n">
         <v>5</v>
       </c>
       <c r="F41" t="n">
-        <v>5</v>
+        <v>373</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2851.1</v>
       </c>
       <c r="H41" t="n">
-        <v>448.28</v>
+        <v>111850.76</v>
       </c>
       <c r="I41" t="n">
-        <v>672.42</v>
+        <v>296075.55</v>
       </c>
       <c r="J41" t="n">
-        <v>1120.7</v>
+        <v>410777.41</v>
       </c>
       <c r="K41" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L41" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M41" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N41" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O41" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P41" t="n">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="Q41" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="42">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -3272,56 +3272,56 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E42" t="n">
         <v>6</v>
       </c>
       <c r="F42" t="n">
-        <v>6</v>
+        <v>297</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2851.1</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>28510.98</v>
       </c>
       <c r="I42" t="n">
-        <v>1344.84</v>
+        <v>296075.55</v>
       </c>
       <c r="J42" t="n">
-        <v>1344.84</v>
+        <v>327437.62</v>
       </c>
       <c r="K42" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L42" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M42" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N42" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O42" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P42" t="n">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="43">
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -3340,47 +3340,47 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E43" t="n">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>6</v>
+        <v>280</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>10965.76</v>
       </c>
       <c r="I43" t="n">
-        <v>1344.84</v>
+        <v>296075.55</v>
       </c>
       <c r="J43" t="n">
-        <v>1344.84</v>
+        <v>307041.31</v>
       </c>
       <c r="K43" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L43" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M43" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N43" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O43" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P43" t="n">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="44">
@@ -3399,7 +3399,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -3408,56 +3408,56 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E44" t="n">
         <v>2</v>
       </c>
       <c r="F44" t="n">
-        <v>7</v>
+        <v>221</v>
       </c>
       <c r="G44" t="n">
-        <v>582.76</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2193.15</v>
       </c>
       <c r="I44" t="n">
-        <v>1344.84</v>
+        <v>240150.17</v>
       </c>
       <c r="J44" t="n">
-        <v>1927.61</v>
+        <v>242343.32</v>
       </c>
       <c r="K44" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L44" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M44" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N44" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O44" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P44" t="n">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="45">
@@ -3467,7 +3467,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -3476,47 +3476,47 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E45" t="n">
         <v>3</v>
       </c>
       <c r="F45" t="n">
-        <v>5</v>
+        <v>358</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>448.28</v>
+        <v>96498.7</v>
       </c>
       <c r="I45" t="n">
-        <v>672.42</v>
+        <v>296075.55</v>
       </c>
       <c r="J45" t="n">
-        <v>1120.7</v>
+        <v>392574.24</v>
       </c>
       <c r="K45" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L45" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M45" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N45" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O45" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P45" t="n">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="Q45" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="46">
@@ -3535,7 +3535,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -3544,47 +3544,47 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E46" t="n">
         <v>4</v>
       </c>
       <c r="F46" t="n">
-        <v>9</v>
+        <v>376</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>116237.07</v>
       </c>
       <c r="I46" t="n">
-        <v>2017.26</v>
+        <v>296075.55</v>
       </c>
       <c r="J46" t="n">
-        <v>2017.26</v>
+        <v>412312.61</v>
       </c>
       <c r="K46" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L46" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M46" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N46" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O46" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P46" t="n">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="47">
@@ -3603,7 +3603,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -3612,44 +3612,44 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E47" t="n">
         <v>5</v>
       </c>
       <c r="F47" t="n">
-        <v>8</v>
+        <v>272</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>448.28</v>
+        <v>2193.15</v>
       </c>
       <c r="I47" t="n">
-        <v>1344.84</v>
+        <v>296075.55</v>
       </c>
       <c r="J47" t="n">
-        <v>1793.12</v>
+        <v>298268.7</v>
       </c>
       <c r="K47" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L47" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M47" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N47" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O47" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P47" t="n">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="Q47" t="n">
         <v>1</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="48">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -3680,47 +3680,47 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E48" t="n">
         <v>6</v>
       </c>
       <c r="F48" t="n">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>448.28</v>
+        <v>72374.02</v>
       </c>
       <c r="I48" t="n">
-        <v>1344.84</v>
+        <v>296075.55</v>
       </c>
       <c r="J48" t="n">
-        <v>1793.12</v>
+        <v>368449.57</v>
       </c>
       <c r="K48" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L48" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M48" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N48" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O48" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P48" t="n">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="Q48" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="R48" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="49">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -3748,44 +3748,44 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E49" t="n">
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>448.28</v>
+        <v>2193.15</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>148037.77</v>
       </c>
       <c r="J49" t="n">
-        <v>448.28</v>
+        <v>150230.93</v>
       </c>
       <c r="K49" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L49" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M49" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N49" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O49" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="50">
@@ -3807,7 +3807,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -3816,44 +3816,44 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E50" t="n">
         <v>2</v>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>448.28</v>
+        <v>2193.15</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>167776.14</v>
       </c>
       <c r="J50" t="n">
-        <v>448.28</v>
+        <v>169969.3</v>
       </c>
       <c r="K50" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L50" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M50" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N50" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O50" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
@@ -3865,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="51">
@@ -3875,7 +3875,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -3884,14 +3884,14 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E51" t="n">
         <v>3</v>
       </c>
       <c r="F51" t="n">
-        <v>3</v>
+        <v>132</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -3900,28 +3900,28 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>672.42</v>
+        <v>144748.05</v>
       </c>
       <c r="J51" t="n">
-        <v>672.42</v>
+        <v>144748.05</v>
       </c>
       <c r="K51" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L51" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M51" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N51" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O51" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P51" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="Q51" t="n">
         <v>0</v>
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="52">
@@ -3943,7 +3943,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -3952,47 +3952,47 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E52" t="n">
         <v>4</v>
       </c>
       <c r="F52" t="n">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2193.15</v>
       </c>
       <c r="I52" t="n">
-        <v>672.42</v>
+        <v>101981.58</v>
       </c>
       <c r="J52" t="n">
-        <v>672.42</v>
+        <v>104174.73</v>
       </c>
       <c r="K52" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L52" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M52" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N52" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O52" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P52" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="Q52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
@@ -4001,7 +4001,7 @@
         <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="53">
@@ -4011,7 +4011,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -4020,44 +4020,44 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E53" t="n">
         <v>5</v>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>448.28</v>
+        <v>2193.15</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>148037.77</v>
       </c>
       <c r="J53" t="n">
-        <v>448.28</v>
+        <v>150230.93</v>
       </c>
       <c r="K53" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L53" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M53" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N53" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O53" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="Q53" t="n">
         <v>1</v>
@@ -4069,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="54">
@@ -4079,7 +4079,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -4088,56 +4088,56 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E54" t="n">
         <v>6</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="G54" t="n">
-        <v>582.76</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2193.15</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>151327.5</v>
       </c>
       <c r="J54" t="n">
-        <v>582.76</v>
+        <v>153520.65</v>
       </c>
       <c r="K54" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L54" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M54" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N54" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O54" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P54" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="Q54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S54" t="n">
         <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="55">
@@ -4147,7 +4147,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -4156,56 +4156,56 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E55" t="n">
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="G55" t="n">
-        <v>582.76</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2193.15</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>134878.86</v>
       </c>
       <c r="J55" t="n">
-        <v>582.76</v>
+        <v>137072.01</v>
       </c>
       <c r="K55" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L55" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M55" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N55" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O55" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P55" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="Q55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="56">
@@ -4215,7 +4215,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -4224,56 +4224,56 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E56" t="n">
         <v>2</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>2851.1</v>
       </c>
       <c r="H56" t="n">
-        <v>448.28</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>82243.21000000001</v>
       </c>
       <c r="J56" t="n">
-        <v>448.28</v>
+        <v>85094.31</v>
       </c>
       <c r="K56" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L56" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M56" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N56" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O56" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P56" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S56" t="n">
         <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="57">
@@ -4283,7 +4283,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -4292,56 +4292,56 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E57" t="n">
         <v>3</v>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>2851.1</v>
       </c>
       <c r="H57" t="n">
-        <v>448.28</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>111850.76</v>
       </c>
       <c r="J57" t="n">
-        <v>448.28</v>
+        <v>114701.86</v>
       </c>
       <c r="K57" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L57" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M57" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N57" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O57" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P57" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Q57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S57" t="n">
         <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="58">
@@ -4351,7 +4351,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -4360,56 +4360,56 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E58" t="n">
         <v>4</v>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>2851.1</v>
       </c>
       <c r="H58" t="n">
-        <v>448.28</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>125009.68</v>
       </c>
       <c r="J58" t="n">
-        <v>448.28</v>
+        <v>127860.77</v>
       </c>
       <c r="K58" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L58" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M58" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N58" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O58" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P58" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Q58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="59">
@@ -4419,7 +4419,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -4428,47 +4428,47 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E59" t="n">
         <v>5</v>
       </c>
       <c r="F59" t="n">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>448.28</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>134878.86</v>
       </c>
       <c r="J59" t="n">
-        <v>448.28</v>
+        <v>134878.86</v>
       </c>
       <c r="K59" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L59" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M59" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N59" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O59" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="Q59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -4477,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="60">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -4496,44 +4496,44 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E60" t="n">
         <v>6</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="G60" t="n">
-        <v>582.76</v>
+        <v>2851.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>92112.39</v>
       </c>
       <c r="J60" t="n">
-        <v>582.76</v>
+        <v>94963.49000000001</v>
       </c>
       <c r="K60" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L60" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M60" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N60" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O60" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Q60" t="n">
         <v>0</v>
@@ -4545,7 +4545,7 @@
         <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="61">
@@ -4555,56 +4555,56 @@
         </is>
       </c>
       <c r="B61" t="n">
+        <v>300</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" t="n">
         <v>120</v>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>2024-11-01</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>1</v>
-      </c>
-      <c r="F61" t="n">
-        <v>2</v>
-      </c>
       <c r="G61" t="n">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>448.28</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>131589.13</v>
       </c>
       <c r="J61" t="n">
-        <v>448.28</v>
+        <v>131589.13</v>
       </c>
       <c r="K61" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L61" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M61" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N61" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O61" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P61" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61" t="n">
         <v>0</v>
@@ -4613,7 +4613,7 @@
         <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="62">
@@ -4623,7 +4623,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -4632,56 +4632,56 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E62" t="n">
         <v>2</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="G62" t="n">
-        <v>582.76</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2193.15</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>118430.22</v>
       </c>
       <c r="J62" t="n">
-        <v>582.76</v>
+        <v>120623.37</v>
       </c>
       <c r="K62" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L62" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M62" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N62" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O62" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="Q62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S62" t="n">
         <v>0</v>
       </c>
       <c r="T62" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="63">
@@ -4691,7 +4691,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -4700,44 +4700,44 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E63" t="n">
         <v>3</v>
       </c>
       <c r="F63" t="n">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>448.28</v>
+        <v>2193.15</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>78953.48</v>
       </c>
       <c r="J63" t="n">
-        <v>448.28</v>
+        <v>81146.63</v>
       </c>
       <c r="K63" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L63" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M63" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N63" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O63" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Q63" t="n">
         <v>1</v>
@@ -4749,7 +4749,7 @@
         <v>0</v>
       </c>
       <c r="T63" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="64">
@@ -4759,7 +4759,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -4768,44 +4768,44 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E64" t="n">
         <v>4</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="G64" t="n">
-        <v>582.76</v>
+        <v>2851.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>131589.13</v>
       </c>
       <c r="J64" t="n">
-        <v>582.76</v>
+        <v>134440.23</v>
       </c>
       <c r="K64" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L64" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M64" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N64" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O64" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P64" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q64" t="n">
         <v>0</v>
@@ -4817,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="T64" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="65">
@@ -4827,7 +4827,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -4836,44 +4836,44 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E65" t="n">
         <v>5</v>
       </c>
       <c r="F65" t="n">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>448.28</v>
+        <v>2193.15</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>121719.95</v>
       </c>
       <c r="J65" t="n">
-        <v>448.28</v>
+        <v>123913.1</v>
       </c>
       <c r="K65" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L65" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M65" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N65" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O65" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P65" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="66">
@@ -4895,7 +4895,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -4904,47 +4904,47 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E66" t="n">
         <v>6</v>
       </c>
       <c r="F66" t="n">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>448.28</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>138168.59</v>
       </c>
       <c r="J66" t="n">
-        <v>448.28</v>
+        <v>138168.59</v>
       </c>
       <c r="K66" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L66" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M66" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N66" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O66" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P66" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="Q66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R66" t="n">
         <v>0</v>
@@ -4953,7 +4953,7 @@
         <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="67">
@@ -4963,7 +4963,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -4972,44 +4972,44 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E67" t="n">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>4</v>
+        <v>202</v>
       </c>
       <c r="G67" t="n">
-        <v>582.76</v>
+        <v>2851.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>672.42</v>
+        <v>220411.8</v>
       </c>
       <c r="J67" t="n">
-        <v>1255.19</v>
+        <v>223262.89</v>
       </c>
       <c r="K67" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L67" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M67" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N67" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O67" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P67" t="n">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="Q67" t="n">
         <v>0</v>
@@ -5021,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="T67" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="68">
@@ -5031,7 +5031,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -5040,44 +5040,44 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E68" t="n">
         <v>2</v>
       </c>
       <c r="F68" t="n">
-        <v>4</v>
+        <v>169</v>
       </c>
       <c r="G68" t="n">
-        <v>582.76</v>
+        <v>2851.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>672.42</v>
+        <v>184224.79</v>
       </c>
       <c r="J68" t="n">
-        <v>1255.19</v>
+        <v>187075.88</v>
       </c>
       <c r="K68" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L68" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M68" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N68" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O68" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P68" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="Q68" t="n">
         <v>0</v>
@@ -5089,7 +5089,7 @@
         <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="69">
@@ -5099,7 +5099,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -5108,14 +5108,14 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E69" t="n">
         <v>3</v>
       </c>
       <c r="F69" t="n">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -5124,28 +5124,28 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>672.42</v>
+        <v>184224.79</v>
       </c>
       <c r="J69" t="n">
-        <v>672.42</v>
+        <v>184224.79</v>
       </c>
       <c r="K69" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L69" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M69" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N69" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O69" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P69" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="Q69" t="n">
         <v>0</v>
@@ -5157,7 +5157,7 @@
         <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="70">
@@ -5167,7 +5167,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -5176,14 +5176,14 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E70" t="n">
         <v>4</v>
       </c>
       <c r="F70" t="n">
-        <v>3</v>
+        <v>186</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -5192,28 +5192,28 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>672.42</v>
+        <v>203963.16</v>
       </c>
       <c r="J70" t="n">
-        <v>672.42</v>
+        <v>203963.16</v>
       </c>
       <c r="K70" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L70" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M70" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N70" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O70" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P70" t="n">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="Q70" t="n">
         <v>0</v>
@@ -5225,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="71">
@@ -5235,7 +5235,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -5244,47 +5244,47 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E71" t="n">
         <v>5</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>448.28</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>115140.49</v>
       </c>
       <c r="J71" t="n">
-        <v>448.28</v>
+        <v>115140.49</v>
       </c>
       <c r="K71" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L71" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M71" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N71" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O71" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P71" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Q71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R71" t="n">
         <v>0</v>
@@ -5293,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
     <row r="72">
@@ -5303,7 +5303,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -5312,14 +5312,14 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E72" t="n">
         <v>6</v>
       </c>
       <c r="F72" t="n">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -5328,28 +5328,28 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>672.42</v>
+        <v>184224.79</v>
       </c>
       <c r="J72" t="n">
-        <v>672.42</v>
+        <v>184224.79</v>
       </c>
       <c r="K72" t="n">
-        <v>116.55</v>
+        <v>570.22</v>
       </c>
       <c r="L72" t="n">
-        <v>89.66</v>
+        <v>438.63</v>
       </c>
       <c r="M72" t="n">
-        <v>134.48</v>
+        <v>657.95</v>
       </c>
       <c r="N72" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="O72" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
       <c r="P72" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="Q72" t="n">
         <v>0</v>
@@ -5361,7 +5361,7 @@
         <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>1.109310475476566</v>
+        <v>1.89831595549204</v>
       </c>
     </row>
   </sheetData>
@@ -5432,21 +5432,21 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="D2" t="n">
         <v>5</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.35</v>
+        <v>2.8</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
     </row>
   </sheetData>
